--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-05_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-05_beg.xlsx
@@ -288,7 +288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]   "How long does Lungmen intend to keep playing dumb?"
+    <t xml:space="preserve">[name="Kal'tsit"]   'How long does Lungmen intend to keep playing dumb?'
 </t>
   </si>
   <si>
